--- a/Segundos parciales/2do parcial.xlsx
+++ b/Segundos parciales/2do parcial.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Segundos parciales\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE63F6D-0C9B-4E75-A865-07B284E9A893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Práctica" sheetId="1" r:id="rId1"/>
     <sheet name="Teoría" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Segundo parcial de Economía y Organización de la Producción 04/11/2019</t>
   </si>
@@ -167,15 +179,18 @@
   <si>
     <t>5 puntos</t>
   </si>
+  <si>
+    <t>Tasa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,7 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,6 +293,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,38 +567,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -598,9 +626,11 @@
         <v>6</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="17">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -632,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -648,12 +678,24 @@
       <c r="F8" s="7">
         <v>50000</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="H8" s="9">
+        <f>NPV(H6,C8:C12)</f>
+        <v>202799.93189350102</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:K8" si="0">NPV(I6,D8:D12)</f>
+        <v>300000</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>470000</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -682,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -698,12 +740,24 @@
       <c r="F10" s="7">
         <v>85000</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="9">
+        <f>C7+H8</f>
+        <v>2799.9318935010233</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:K10" si="1">D7+I8</f>
+        <v>150000</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="1"/>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -732,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>5</v>
       </c>
@@ -748,15 +802,27 @@
       <c r="F12" s="7">
         <v>180000</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="18">
+        <f>IRR(C7:C12)</f>
+        <v>0.17452334618948084</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" ref="I12:K12" si="2">IRR(D7:D12)</f>
+        <v>0.27970739184562787</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.23941830269076791</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.49426697731395719</v>
+      </c>
       <c r="L12" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -765,13 +831,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1">
+    <row r="15" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -787,7 +853,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -795,7 +861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -803,7 +869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -811,7 +877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -819,7 +885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -827,7 +893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -842,66 +908,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
